--- a/file/table/IAMB_Geology.xlsx
+++ b/file/table/IAMB_Geology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.IAMB\file\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785899BA-4A4E-49AC-BB34-0B0428B9CCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804A33A1-FEB7-4BC6-BF98-C1C5908EE0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{FA408DFC-EE52-4E8D-804B-2D6A84343969}"/>
   </bookViews>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F62286-D616-43A0-BA1B-6A57619D763B}">
   <dimension ref="B2:G55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:G42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
@@ -802,7 +802,7 @@
     <col min="3" max="3" width="26.265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.46484375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
